--- a/results/Preliminaries-Romania.xlsx
+++ b/results/Preliminaries-Romania.xlsx
@@ -47,52 +47,52 @@
     <t>2020</t>
   </si>
   <si>
-    <t xml:space="preserve">DA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NU </t>
-  </si>
-  <si>
-    <t>Oth</t>
-  </si>
-  <si>
-    <t>PRM</t>
-  </si>
-  <si>
-    <t>UDM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP </t>
-  </si>
-  <si>
-    <t>PD-</t>
-  </si>
-  <si>
-    <t>PNL</t>
-  </si>
-  <si>
-    <t>ARD</t>
-  </si>
-  <si>
-    <t>PPD</t>
-  </si>
-  <si>
-    <t>USL</t>
-  </si>
-  <si>
-    <t>ALD</t>
-  </si>
-  <si>
-    <t>PMP</t>
-  </si>
-  <si>
-    <t>PSD</t>
-  </si>
-  <si>
-    <t>USR</t>
-  </si>
-  <si>
-    <t>AUR</t>
+    <t>DA - Justice and Truth Alliance  (Alianta Dreptate si Adevar, DA)</t>
+  </si>
+  <si>
+    <t>NU PSDplusPUR - National Union PSDplusPUR (Uniunea Nationala PSDplusPUR, NU PSDplusPUR)</t>
+  </si>
+  <si>
+    <t>Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)</t>
+  </si>
+  <si>
+    <t>PRM - Greater Romania Party  (Partidul Romania Mare, PRM)</t>
+  </si>
+  <si>
+    <t>UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>AP PSDplusPC - PSDplusPC Alliance (Alianta Politica PSDplusPC, AP PSDplusPC)</t>
+  </si>
+  <si>
+    <t>PD-L - Democrat-Liberal Party  (Partidul Democrat-Liberal, PD-L)</t>
+  </si>
+  <si>
+    <t>PNL - National Liberal Party  (Partidul National Liberal, PNL)</t>
+  </si>
+  <si>
+    <t>ARD - Right Romania Alliance (Alianţa România Dreaptă, ARD)</t>
+  </si>
+  <si>
+    <t>PPDD - Popular Party Dan Diaconescu (Partidul Poprului-Dan Diaconescu, PPDD)</t>
+  </si>
+  <si>
+    <t>USL - Social Liberal Union (Uniunea Social Liberală, USL)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)</t>
+  </si>
+  <si>
+    <t>PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)</t>
+  </si>
+  <si>
+    <t>PSD - Social Democratic Party  (Partidul Social Democrat, PSD)</t>
+  </si>
+  <si>
+    <t>USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>AUR - Alliance for the Unity of Romanians (Alianța pentru Unitatea Românilor, AUR)</t>
   </si>
   <si>
     <t>Key</t>
@@ -125,673 +125,673 @@
     <t>Key_2</t>
   </si>
   <si>
-    <t xml:space="preserve">DA +NU </t>
-  </si>
-  <si>
-    <t>DA +Oth</t>
-  </si>
-  <si>
-    <t>DA +PRM</t>
-  </si>
-  <si>
-    <t>DA +UDM</t>
-  </si>
-  <si>
-    <t>NU +Oth</t>
-  </si>
-  <si>
-    <t>NU +PRM</t>
-  </si>
-  <si>
-    <t>NU +UDM</t>
-  </si>
-  <si>
-    <t>Oth+PRM</t>
-  </si>
-  <si>
-    <t>Oth+UDM</t>
-  </si>
-  <si>
-    <t>PRM+UDM</t>
-  </si>
-  <si>
-    <t>DA +NU +Oth</t>
-  </si>
-  <si>
-    <t>DA +NU +PRM</t>
-  </si>
-  <si>
-    <t>DA +NU +UDM</t>
-  </si>
-  <si>
-    <t>DA +Oth+PRM</t>
-  </si>
-  <si>
-    <t>DA +Oth+UDM</t>
-  </si>
-  <si>
-    <t>DA +PRM+UDM</t>
-  </si>
-  <si>
-    <t>NU +Oth+PRM</t>
-  </si>
-  <si>
-    <t>NU +Oth+UDM</t>
-  </si>
-  <si>
-    <t>NU +PRM+UDM</t>
-  </si>
-  <si>
-    <t>Oth+PRM+UDM</t>
-  </si>
-  <si>
-    <t>DA +NU +Oth+PRM</t>
-  </si>
-  <si>
-    <t>DA +NU +Oth+UDM</t>
-  </si>
-  <si>
-    <t>DA +NU +PRM+UDM</t>
-  </si>
-  <si>
-    <t>DA +Oth+PRM+UDM</t>
-  </si>
-  <si>
-    <t>NU +Oth+PRM+UDM</t>
-  </si>
-  <si>
-    <t>DA +NU +Oth+PRM+UDM</t>
-  </si>
-  <si>
-    <t>AP +Oth</t>
-  </si>
-  <si>
-    <t>AP +PD-</t>
-  </si>
-  <si>
-    <t>AP +PNL</t>
-  </si>
-  <si>
-    <t>AP +UDM</t>
-  </si>
-  <si>
-    <t>Oth+PD-</t>
-  </si>
-  <si>
-    <t>Oth+PNL</t>
-  </si>
-  <si>
-    <t>PD-+PNL</t>
-  </si>
-  <si>
-    <t>PD-+UDM</t>
-  </si>
-  <si>
-    <t>PNL+UDM</t>
-  </si>
-  <si>
-    <t>AP +Oth+PD-</t>
-  </si>
-  <si>
-    <t>AP +Oth+PNL</t>
-  </si>
-  <si>
-    <t>AP +Oth+UDM</t>
-  </si>
-  <si>
-    <t>AP +PD-+PNL</t>
-  </si>
-  <si>
-    <t>AP +PD-+UDM</t>
-  </si>
-  <si>
-    <t>AP +PNL+UDM</t>
-  </si>
-  <si>
-    <t>Oth+PD-+PNL</t>
-  </si>
-  <si>
-    <t>Oth+PD-+UDM</t>
-  </si>
-  <si>
-    <t>Oth+PNL+UDM</t>
-  </si>
-  <si>
-    <t>PD-+PNL+UDM</t>
-  </si>
-  <si>
-    <t>AP +Oth+PD-+PNL</t>
-  </si>
-  <si>
-    <t>AP +Oth+PD-+UDM</t>
-  </si>
-  <si>
-    <t>AP +Oth+PNL+UDM</t>
-  </si>
-  <si>
-    <t>AP +PD-+PNL+UDM</t>
-  </si>
-  <si>
-    <t>Oth+PD-+PNL+UDM</t>
-  </si>
-  <si>
-    <t>AP +Oth+PD-+PNL+UDM</t>
-  </si>
-  <si>
-    <t>ARD+Oth</t>
-  </si>
-  <si>
-    <t>ARD+PPD</t>
-  </si>
-  <si>
-    <t>ARD+UDM</t>
-  </si>
-  <si>
-    <t>ARD+USL</t>
-  </si>
-  <si>
-    <t>Oth+PPD</t>
-  </si>
-  <si>
-    <t>Oth+USL</t>
-  </si>
-  <si>
-    <t>PPD+UDM</t>
-  </si>
-  <si>
-    <t>PPD+USL</t>
-  </si>
-  <si>
-    <t>UDM+USL</t>
-  </si>
-  <si>
-    <t>ARD+Oth+PPD</t>
-  </si>
-  <si>
-    <t>ARD+Oth+UDM</t>
-  </si>
-  <si>
-    <t>ARD+Oth+USL</t>
-  </si>
-  <si>
-    <t>ARD+PPD+UDM</t>
-  </si>
-  <si>
-    <t>ARD+PPD+USL</t>
-  </si>
-  <si>
-    <t>ARD+UDM+USL</t>
-  </si>
-  <si>
-    <t>Oth+PPD+UDM</t>
-  </si>
-  <si>
-    <t>Oth+PPD+USL</t>
-  </si>
-  <si>
-    <t>Oth+UDM+USL</t>
-  </si>
-  <si>
-    <t>PPD+UDM+USL</t>
-  </si>
-  <si>
-    <t>ARD+Oth+PPD+UDM</t>
-  </si>
-  <si>
-    <t>ARD+Oth+PPD+USL</t>
-  </si>
-  <si>
-    <t>ARD+Oth+UDM+USL</t>
-  </si>
-  <si>
-    <t>ARD+PPD+UDM+USL</t>
-  </si>
-  <si>
-    <t>Oth+PPD+UDM+USL</t>
-  </si>
-  <si>
-    <t>ARD+Oth+PPD+UDM+USL</t>
-  </si>
-  <si>
-    <t>ALD+Oth</t>
-  </si>
-  <si>
-    <t>ALD+PMP</t>
-  </si>
-  <si>
-    <t>ALD+PNL</t>
-  </si>
-  <si>
-    <t>ALD+PSD</t>
-  </si>
-  <si>
-    <t>ALD+UDM</t>
-  </si>
-  <si>
-    <t>ALD+USR</t>
-  </si>
-  <si>
-    <t>Oth+PMP</t>
-  </si>
-  <si>
-    <t>Oth+PSD</t>
-  </si>
-  <si>
-    <t>Oth+USR</t>
-  </si>
-  <si>
-    <t>PMP+PNL</t>
-  </si>
-  <si>
-    <t>PMP+PSD</t>
-  </si>
-  <si>
-    <t>PMP+UDM</t>
-  </si>
-  <si>
-    <t>PMP+USR</t>
-  </si>
-  <si>
-    <t>PNL+PSD</t>
-  </si>
-  <si>
-    <t>PNL+USR</t>
-  </si>
-  <si>
-    <t>PSD+UDM</t>
-  </si>
-  <si>
-    <t>PSD+USR</t>
-  </si>
-  <si>
-    <t>UDM+USR</t>
-  </si>
-  <si>
-    <t>ALD+Oth+PMP</t>
-  </si>
-  <si>
-    <t>ALD+Oth+PNL</t>
-  </si>
-  <si>
-    <t>ALD+Oth+PSD</t>
-  </si>
-  <si>
-    <t>ALD+Oth+UDM</t>
-  </si>
-  <si>
-    <t>ALD+Oth+USR</t>
-  </si>
-  <si>
-    <t>ALD+PMP+PNL</t>
-  </si>
-  <si>
-    <t>ALD+PMP+PSD</t>
-  </si>
-  <si>
-    <t>ALD+PMP+UDM</t>
-  </si>
-  <si>
-    <t>ALD+PMP+USR</t>
-  </si>
-  <si>
-    <t>ALD+PNL+PSD</t>
-  </si>
-  <si>
-    <t>ALD+PNL+UDM</t>
-  </si>
-  <si>
-    <t>ALD+PNL+USR</t>
-  </si>
-  <si>
-    <t>ALD+PSD+UDM</t>
-  </si>
-  <si>
-    <t>ALD+PSD+USR</t>
-  </si>
-  <si>
-    <t>ALD+UDM+USR</t>
-  </si>
-  <si>
-    <t>Oth+PMP+PNL</t>
-  </si>
-  <si>
-    <t>Oth+PMP+PSD</t>
-  </si>
-  <si>
-    <t>Oth+PMP+UDM</t>
-  </si>
-  <si>
-    <t>Oth+PMP+USR</t>
-  </si>
-  <si>
-    <t>Oth+PNL+PSD</t>
-  </si>
-  <si>
-    <t>Oth+PNL+USR</t>
-  </si>
-  <si>
-    <t>Oth+PSD+UDM</t>
-  </si>
-  <si>
-    <t>Oth+PSD+USR</t>
-  </si>
-  <si>
-    <t>Oth+UDM+USR</t>
-  </si>
-  <si>
-    <t>PMP+PNL+PSD</t>
-  </si>
-  <si>
-    <t>PMP+PNL+UDM</t>
-  </si>
-  <si>
-    <t>PMP+PNL+USR</t>
-  </si>
-  <si>
-    <t>PMP+PSD+UDM</t>
-  </si>
-  <si>
-    <t>PMP+PSD+USR</t>
-  </si>
-  <si>
-    <t>PMP+UDM+USR</t>
-  </si>
-  <si>
-    <t>PNL+PSD+UDM</t>
-  </si>
-  <si>
-    <t>PNL+PSD+USR</t>
-  </si>
-  <si>
-    <t>PNL+UDM+USR</t>
-  </si>
-  <si>
-    <t>PSD+UDM+USR</t>
-  </si>
-  <si>
-    <t>ALD+Oth+PMP+PNL</t>
-  </si>
-  <si>
-    <t>ALD+Oth+PMP+PSD</t>
-  </si>
-  <si>
-    <t>ALD+Oth+PMP+UDM</t>
-  </si>
-  <si>
-    <t>ALD+Oth+PMP+USR</t>
-  </si>
-  <si>
-    <t>ALD+Oth+PNL+PSD</t>
-  </si>
-  <si>
-    <t>ALD+Oth+PNL+UDM</t>
-  </si>
-  <si>
-    <t>ALD+Oth+PNL+USR</t>
-  </si>
-  <si>
-    <t>ALD+Oth+PSD+UDM</t>
-  </si>
-  <si>
-    <t>ALD+Oth+PSD+USR</t>
-  </si>
-  <si>
-    <t>ALD+Oth+UDM+USR</t>
-  </si>
-  <si>
-    <t>ALD+PMP+PNL+PSD</t>
-  </si>
-  <si>
-    <t>ALD+PMP+PNL+UDM</t>
-  </si>
-  <si>
-    <t>ALD+PMP+PNL+USR</t>
-  </si>
-  <si>
-    <t>ALD+PMP+PSD+UDM</t>
-  </si>
-  <si>
-    <t>ALD+PMP+PSD+USR</t>
-  </si>
-  <si>
-    <t>ALD+PMP+UDM+USR</t>
-  </si>
-  <si>
-    <t>ALD+PNL+PSD+UDM</t>
-  </si>
-  <si>
-    <t>ALD+PNL+PSD+USR</t>
-  </si>
-  <si>
-    <t>ALD+PNL+UDM+USR</t>
-  </si>
-  <si>
-    <t>ALD+PSD+UDM+USR</t>
-  </si>
-  <si>
-    <t>Oth+PMP+PNL+PSD</t>
-  </si>
-  <si>
-    <t>Oth+PMP+PNL+UDM</t>
-  </si>
-  <si>
-    <t>Oth+PMP+PNL+USR</t>
-  </si>
-  <si>
-    <t>Oth+PMP+PSD+UDM</t>
-  </si>
-  <si>
-    <t>Oth+PMP+PSD+USR</t>
-  </si>
-  <si>
-    <t>Oth+PMP+UDM+USR</t>
-  </si>
-  <si>
-    <t>Oth+PNL+PSD+UDM</t>
-  </si>
-  <si>
-    <t>Oth+PNL+PSD+USR</t>
-  </si>
-  <si>
-    <t>Oth+PNL+UDM+USR</t>
-  </si>
-  <si>
-    <t>Oth+PSD+UDM+USR</t>
-  </si>
-  <si>
-    <t>PMP+PNL+PSD+UDM</t>
-  </si>
-  <si>
-    <t>PMP+PNL+PSD+USR</t>
-  </si>
-  <si>
-    <t>PMP+PNL+UDM+USR</t>
-  </si>
-  <si>
-    <t>PMP+PSD+UDM+USR</t>
-  </si>
-  <si>
-    <t>PNL+PSD+UDM+USR</t>
-  </si>
-  <si>
-    <t>ALD+Oth+PMP+PNL+PSD</t>
-  </si>
-  <si>
-    <t>ALD+Oth+PMP+PNL+UDM</t>
-  </si>
-  <si>
-    <t>ALD+Oth+PMP+PNL+USR</t>
-  </si>
-  <si>
-    <t>ALD+Oth+PMP+PSD+UDM</t>
-  </si>
-  <si>
-    <t>ALD+Oth+PMP+PSD+USR</t>
-  </si>
-  <si>
-    <t>ALD+Oth+PMP+UDM+USR</t>
-  </si>
-  <si>
-    <t>ALD+Oth+PNL+PSD+UDM</t>
-  </si>
-  <si>
-    <t>ALD+Oth+PNL+PSD+USR</t>
-  </si>
-  <si>
-    <t>ALD+Oth+PNL+UDM+USR</t>
-  </si>
-  <si>
-    <t>ALD+Oth+PSD+UDM+USR</t>
-  </si>
-  <si>
-    <t>ALD+PMP+PNL+PSD+UDM</t>
-  </si>
-  <si>
-    <t>ALD+PMP+PNL+PSD+USR</t>
-  </si>
-  <si>
-    <t>ALD+PMP+PNL+UDM+USR</t>
-  </si>
-  <si>
-    <t>ALD+PMP+PSD+UDM+USR</t>
-  </si>
-  <si>
-    <t>ALD+PNL+PSD+UDM+USR</t>
-  </si>
-  <si>
-    <t>Oth+PMP+PNL+PSD+UDM</t>
-  </si>
-  <si>
-    <t>Oth+PMP+PNL+PSD+USR</t>
-  </si>
-  <si>
-    <t>Oth+PMP+PNL+UDM+USR</t>
-  </si>
-  <si>
-    <t>Oth+PMP+PSD+UDM+USR</t>
-  </si>
-  <si>
-    <t>Oth+PNL+PSD+UDM+USR</t>
-  </si>
-  <si>
-    <t>PMP+PNL+PSD+UDM+USR</t>
-  </si>
-  <si>
-    <t>ALD+Oth+PMP+PNL+PSD+UDM</t>
-  </si>
-  <si>
-    <t>ALD+Oth+PMP+PNL+PSD+USR</t>
-  </si>
-  <si>
-    <t>ALD+Oth+PMP+PNL+UDM+USR</t>
-  </si>
-  <si>
-    <t>ALD+Oth+PMP+PSD+UDM+USR</t>
-  </si>
-  <si>
-    <t>ALD+Oth+PNL+PSD+UDM+USR</t>
-  </si>
-  <si>
-    <t>ALD+PMP+PNL+PSD+UDM+USR</t>
-  </si>
-  <si>
-    <t>Oth+PMP+PNL+PSD+UDM+USR</t>
-  </si>
-  <si>
-    <t>ALD+Oth+PMP+PNL+PSD+UDM+USR</t>
-  </si>
-  <si>
-    <t>AUR+Oth</t>
-  </si>
-  <si>
-    <t>AUR+PNL</t>
-  </si>
-  <si>
-    <t>AUR+PSD</t>
-  </si>
-  <si>
-    <t>AUR+UDM</t>
-  </si>
-  <si>
-    <t>AUR+USR</t>
-  </si>
-  <si>
-    <t>AUR+Oth+PNL</t>
-  </si>
-  <si>
-    <t>AUR+Oth+PSD</t>
-  </si>
-  <si>
-    <t>AUR+Oth+UDM</t>
-  </si>
-  <si>
-    <t>AUR+Oth+USR</t>
-  </si>
-  <si>
-    <t>AUR+PNL+PSD</t>
-  </si>
-  <si>
-    <t>AUR+PNL+UDM</t>
-  </si>
-  <si>
-    <t>AUR+PNL+USR</t>
-  </si>
-  <si>
-    <t>AUR+PSD+UDM</t>
-  </si>
-  <si>
-    <t>AUR+PSD+USR</t>
-  </si>
-  <si>
-    <t>AUR+UDM+USR</t>
-  </si>
-  <si>
-    <t>AUR+Oth+PNL+PSD</t>
-  </si>
-  <si>
-    <t>AUR+Oth+PNL+UDM</t>
-  </si>
-  <si>
-    <t>AUR+Oth+PNL+USR</t>
-  </si>
-  <si>
-    <t>AUR+Oth+PSD+UDM</t>
-  </si>
-  <si>
-    <t>AUR+Oth+PSD+USR</t>
-  </si>
-  <si>
-    <t>AUR+Oth+UDM+USR</t>
-  </si>
-  <si>
-    <t>AUR+PNL+PSD+UDM</t>
-  </si>
-  <si>
-    <t>AUR+PNL+PSD+USR</t>
-  </si>
-  <si>
-    <t>AUR+PNL+UDM+USR</t>
-  </si>
-  <si>
-    <t>AUR+PSD+UDM+USR</t>
-  </si>
-  <si>
-    <t>AUR+Oth+PNL+PSD+UDM</t>
-  </si>
-  <si>
-    <t>AUR+Oth+PNL+PSD+USR</t>
-  </si>
-  <si>
-    <t>AUR+Oth+PNL+UDM+USR</t>
-  </si>
-  <si>
-    <t>AUR+Oth+PSD+UDM+USR</t>
-  </si>
-  <si>
-    <t>AUR+PNL+PSD+UDM+USR</t>
-  </si>
-  <si>
-    <t>AUR+Oth+PNL+PSD+UDM+USR</t>
+    <t>DA - Justice and Truth Alliance  (Alianta Dreptate si Adevar, DA)+NU PSDplusPUR - National Union PSDplusPUR (Uniunea Nationala PSDplusPUR, NU PSDplusPUR)</t>
+  </si>
+  <si>
+    <t>DA - Justice and Truth Alliance  (Alianta Dreptate si Adevar, DA)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)</t>
+  </si>
+  <si>
+    <t>DA - Justice and Truth Alliance  (Alianta Dreptate si Adevar, DA)+PRM - Greater Romania Party  (Partidul Romania Mare, PRM)</t>
+  </si>
+  <si>
+    <t>DA - Justice and Truth Alliance  (Alianta Dreptate si Adevar, DA)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>NU PSDplusPUR - National Union PSDplusPUR (Uniunea Nationala PSDplusPUR, NU PSDplusPUR)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)</t>
+  </si>
+  <si>
+    <t>NU PSDplusPUR - National Union PSDplusPUR (Uniunea Nationala PSDplusPUR, NU PSDplusPUR)+PRM - Greater Romania Party  (Partidul Romania Mare, PRM)</t>
+  </si>
+  <si>
+    <t>NU PSDplusPUR - National Union PSDplusPUR (Uniunea Nationala PSDplusPUR, NU PSDplusPUR)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PRM - Greater Romania Party  (Partidul Romania Mare, PRM)</t>
+  </si>
+  <si>
+    <t>Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>PRM - Greater Romania Party  (Partidul Romania Mare, PRM)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>DA - Justice and Truth Alliance  (Alianta Dreptate si Adevar, DA)+NU PSDplusPUR - National Union PSDplusPUR (Uniunea Nationala PSDplusPUR, NU PSDplusPUR)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)</t>
+  </si>
+  <si>
+    <t>DA - Justice and Truth Alliance  (Alianta Dreptate si Adevar, DA)+NU PSDplusPUR - National Union PSDplusPUR (Uniunea Nationala PSDplusPUR, NU PSDplusPUR)+PRM - Greater Romania Party  (Partidul Romania Mare, PRM)</t>
+  </si>
+  <si>
+    <t>DA - Justice and Truth Alliance  (Alianta Dreptate si Adevar, DA)+NU PSDplusPUR - National Union PSDplusPUR (Uniunea Nationala PSDplusPUR, NU PSDplusPUR)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>DA - Justice and Truth Alliance  (Alianta Dreptate si Adevar, DA)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PRM - Greater Romania Party  (Partidul Romania Mare, PRM)</t>
+  </si>
+  <si>
+    <t>DA - Justice and Truth Alliance  (Alianta Dreptate si Adevar, DA)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>DA - Justice and Truth Alliance  (Alianta Dreptate si Adevar, DA)+PRM - Greater Romania Party  (Partidul Romania Mare, PRM)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>NU PSDplusPUR - National Union PSDplusPUR (Uniunea Nationala PSDplusPUR, NU PSDplusPUR)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PRM - Greater Romania Party  (Partidul Romania Mare, PRM)</t>
+  </si>
+  <si>
+    <t>NU PSDplusPUR - National Union PSDplusPUR (Uniunea Nationala PSDplusPUR, NU PSDplusPUR)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>NU PSDplusPUR - National Union PSDplusPUR (Uniunea Nationala PSDplusPUR, NU PSDplusPUR)+PRM - Greater Romania Party  (Partidul Romania Mare, PRM)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PRM - Greater Romania Party  (Partidul Romania Mare, PRM)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>DA - Justice and Truth Alliance  (Alianta Dreptate si Adevar, DA)+NU PSDplusPUR - National Union PSDplusPUR (Uniunea Nationala PSDplusPUR, NU PSDplusPUR)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PRM - Greater Romania Party  (Partidul Romania Mare, PRM)</t>
+  </si>
+  <si>
+    <t>DA - Justice and Truth Alliance  (Alianta Dreptate si Adevar, DA)+NU PSDplusPUR - National Union PSDplusPUR (Uniunea Nationala PSDplusPUR, NU PSDplusPUR)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>DA - Justice and Truth Alliance  (Alianta Dreptate si Adevar, DA)+NU PSDplusPUR - National Union PSDplusPUR (Uniunea Nationala PSDplusPUR, NU PSDplusPUR)+PRM - Greater Romania Party  (Partidul Romania Mare, PRM)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>DA - Justice and Truth Alliance  (Alianta Dreptate si Adevar, DA)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PRM - Greater Romania Party  (Partidul Romania Mare, PRM)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>NU PSDplusPUR - National Union PSDplusPUR (Uniunea Nationala PSDplusPUR, NU PSDplusPUR)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PRM - Greater Romania Party  (Partidul Romania Mare, PRM)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>DA - Justice and Truth Alliance  (Alianta Dreptate si Adevar, DA)+NU PSDplusPUR - National Union PSDplusPUR (Uniunea Nationala PSDplusPUR, NU PSDplusPUR)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PRM - Greater Romania Party  (Partidul Romania Mare, PRM)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>AP PSDplusPC - PSDplusPC Alliance (Alianta Politica PSDplusPC, AP PSDplusPC)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)</t>
+  </si>
+  <si>
+    <t>AP PSDplusPC - PSDplusPC Alliance (Alianta Politica PSDplusPC, AP PSDplusPC)+PD-L - Democrat-Liberal Party  (Partidul Democrat-Liberal, PD-L)</t>
+  </si>
+  <si>
+    <t>AP PSDplusPC - PSDplusPC Alliance (Alianta Politica PSDplusPC, AP PSDplusPC)+PNL - National Liberal Party  (Partidul National Liberal, PNL)</t>
+  </si>
+  <si>
+    <t>AP PSDplusPC - PSDplusPC Alliance (Alianta Politica PSDplusPC, AP PSDplusPC)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PD-L - Democrat-Liberal Party  (Partidul Democrat-Liberal, PD-L)</t>
+  </si>
+  <si>
+    <t>Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PNL - National Liberal Party  (Partidul National Liberal, PNL)</t>
+  </si>
+  <si>
+    <t>PD-L - Democrat-Liberal Party  (Partidul Democrat-Liberal, PD-L)+PNL - National Liberal Party  (Partidul National Liberal, PNL)</t>
+  </si>
+  <si>
+    <t>PD-L - Democrat-Liberal Party  (Partidul Democrat-Liberal, PD-L)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>PNL - National Liberal Party  (Partidul National Liberal, PNL)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>AP PSDplusPC - PSDplusPC Alliance (Alianta Politica PSDplusPC, AP PSDplusPC)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PD-L - Democrat-Liberal Party  (Partidul Democrat-Liberal, PD-L)</t>
+  </si>
+  <si>
+    <t>AP PSDplusPC - PSDplusPC Alliance (Alianta Politica PSDplusPC, AP PSDplusPC)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PNL - National Liberal Party  (Partidul National Liberal, PNL)</t>
+  </si>
+  <si>
+    <t>AP PSDplusPC - PSDplusPC Alliance (Alianta Politica PSDplusPC, AP PSDplusPC)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>AP PSDplusPC - PSDplusPC Alliance (Alianta Politica PSDplusPC, AP PSDplusPC)+PD-L - Democrat-Liberal Party  (Partidul Democrat-Liberal, PD-L)+PNL - National Liberal Party  (Partidul National Liberal, PNL)</t>
+  </si>
+  <si>
+    <t>AP PSDplusPC - PSDplusPC Alliance (Alianta Politica PSDplusPC, AP PSDplusPC)+PD-L - Democrat-Liberal Party  (Partidul Democrat-Liberal, PD-L)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>AP PSDplusPC - PSDplusPC Alliance (Alianta Politica PSDplusPC, AP PSDplusPC)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PD-L - Democrat-Liberal Party  (Partidul Democrat-Liberal, PD-L)+PNL - National Liberal Party  (Partidul National Liberal, PNL)</t>
+  </si>
+  <si>
+    <t>Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PD-L - Democrat-Liberal Party  (Partidul Democrat-Liberal, PD-L)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>PD-L - Democrat-Liberal Party  (Partidul Democrat-Liberal, PD-L)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>AP PSDplusPC - PSDplusPC Alliance (Alianta Politica PSDplusPC, AP PSDplusPC)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PD-L - Democrat-Liberal Party  (Partidul Democrat-Liberal, PD-L)+PNL - National Liberal Party  (Partidul National Liberal, PNL)</t>
+  </si>
+  <si>
+    <t>AP PSDplusPC - PSDplusPC Alliance (Alianta Politica PSDplusPC, AP PSDplusPC)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PD-L - Democrat-Liberal Party  (Partidul Democrat-Liberal, PD-L)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>AP PSDplusPC - PSDplusPC Alliance (Alianta Politica PSDplusPC, AP PSDplusPC)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>AP PSDplusPC - PSDplusPC Alliance (Alianta Politica PSDplusPC, AP PSDplusPC)+PD-L - Democrat-Liberal Party  (Partidul Democrat-Liberal, PD-L)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PD-L - Democrat-Liberal Party  (Partidul Democrat-Liberal, PD-L)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>AP PSDplusPC - PSDplusPC Alliance (Alianta Politica PSDplusPC, AP PSDplusPC)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PD-L - Democrat-Liberal Party  (Partidul Democrat-Liberal, PD-L)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>ARD - Right Romania Alliance (Alianţa România Dreaptă, ARD)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)</t>
+  </si>
+  <si>
+    <t>ARD - Right Romania Alliance (Alianţa România Dreaptă, ARD)+PPDD - Popular Party Dan Diaconescu (Partidul Poprului-Dan Diaconescu, PPDD)</t>
+  </si>
+  <si>
+    <t>ARD - Right Romania Alliance (Alianţa România Dreaptă, ARD)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>ARD - Right Romania Alliance (Alianţa România Dreaptă, ARD)+USL - Social Liberal Union (Uniunea Social Liberală, USL)</t>
+  </si>
+  <si>
+    <t>Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PPDD - Popular Party Dan Diaconescu (Partidul Poprului-Dan Diaconescu, PPDD)</t>
+  </si>
+  <si>
+    <t>Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+USL - Social Liberal Union (Uniunea Social Liberală, USL)</t>
+  </si>
+  <si>
+    <t>PPDD - Popular Party Dan Diaconescu (Partidul Poprului-Dan Diaconescu, PPDD)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>PPDD - Popular Party Dan Diaconescu (Partidul Poprului-Dan Diaconescu, PPDD)+USL - Social Liberal Union (Uniunea Social Liberală, USL)</t>
+  </si>
+  <si>
+    <t>UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)+USL - Social Liberal Union (Uniunea Social Liberală, USL)</t>
+  </si>
+  <si>
+    <t>ARD - Right Romania Alliance (Alianţa România Dreaptă, ARD)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PPDD - Popular Party Dan Diaconescu (Partidul Poprului-Dan Diaconescu, PPDD)</t>
+  </si>
+  <si>
+    <t>ARD - Right Romania Alliance (Alianţa România Dreaptă, ARD)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>ARD - Right Romania Alliance (Alianţa România Dreaptă, ARD)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+USL - Social Liberal Union (Uniunea Social Liberală, USL)</t>
+  </si>
+  <si>
+    <t>ARD - Right Romania Alliance (Alianţa România Dreaptă, ARD)+PPDD - Popular Party Dan Diaconescu (Partidul Poprului-Dan Diaconescu, PPDD)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>ARD - Right Romania Alliance (Alianţa România Dreaptă, ARD)+PPDD - Popular Party Dan Diaconescu (Partidul Poprului-Dan Diaconescu, PPDD)+USL - Social Liberal Union (Uniunea Social Liberală, USL)</t>
+  </si>
+  <si>
+    <t>ARD - Right Romania Alliance (Alianţa România Dreaptă, ARD)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)+USL - Social Liberal Union (Uniunea Social Liberală, USL)</t>
+  </si>
+  <si>
+    <t>Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PPDD - Popular Party Dan Diaconescu (Partidul Poprului-Dan Diaconescu, PPDD)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PPDD - Popular Party Dan Diaconescu (Partidul Poprului-Dan Diaconescu, PPDD)+USL - Social Liberal Union (Uniunea Social Liberală, USL)</t>
+  </si>
+  <si>
+    <t>Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)+USL - Social Liberal Union (Uniunea Social Liberală, USL)</t>
+  </si>
+  <si>
+    <t>PPDD - Popular Party Dan Diaconescu (Partidul Poprului-Dan Diaconescu, PPDD)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)+USL - Social Liberal Union (Uniunea Social Liberală, USL)</t>
+  </si>
+  <si>
+    <t>ARD - Right Romania Alliance (Alianţa România Dreaptă, ARD)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PPDD - Popular Party Dan Diaconescu (Partidul Poprului-Dan Diaconescu, PPDD)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>ARD - Right Romania Alliance (Alianţa România Dreaptă, ARD)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PPDD - Popular Party Dan Diaconescu (Partidul Poprului-Dan Diaconescu, PPDD)+USL - Social Liberal Union (Uniunea Social Liberală, USL)</t>
+  </si>
+  <si>
+    <t>ARD - Right Romania Alliance (Alianţa România Dreaptă, ARD)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)+USL - Social Liberal Union (Uniunea Social Liberală, USL)</t>
+  </si>
+  <si>
+    <t>ARD - Right Romania Alliance (Alianţa România Dreaptă, ARD)+PPDD - Popular Party Dan Diaconescu (Partidul Poprului-Dan Diaconescu, PPDD)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)+USL - Social Liberal Union (Uniunea Social Liberală, USL)</t>
+  </si>
+  <si>
+    <t>Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PPDD - Popular Party Dan Diaconescu (Partidul Poprului-Dan Diaconescu, PPDD)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)+USL - Social Liberal Union (Uniunea Social Liberală, USL)</t>
+  </si>
+  <si>
+    <t>ARD - Right Romania Alliance (Alianţa România Dreaptă, ARD)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PPDD - Popular Party Dan Diaconescu (Partidul Poprului-Dan Diaconescu, PPDD)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)+USL - Social Liberal Union (Uniunea Social Liberală, USL)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+PNL - National Liberal Party  (Partidul National Liberal, PNL)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)</t>
+  </si>
+  <si>
+    <t>Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)</t>
+  </si>
+  <si>
+    <t>Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+PNL - National Liberal Party  (Partidul National Liberal, PNL)</t>
+  </si>
+  <si>
+    <t>PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)</t>
+  </si>
+  <si>
+    <t>PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>PNL - National Liberal Party  (Partidul National Liberal, PNL)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)</t>
+  </si>
+  <si>
+    <t>PNL - National Liberal Party  (Partidul National Liberal, PNL)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PNL - National Liberal Party  (Partidul National Liberal, PNL)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+PNL - National Liberal Party  (Partidul National Liberal, PNL)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+PNL - National Liberal Party  (Partidul National Liberal, PNL)</t>
+  </si>
+  <si>
+    <t>Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)</t>
+  </si>
+  <si>
+    <t>Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)</t>
+  </si>
+  <si>
+    <t>Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)</t>
+  </si>
+  <si>
+    <t>PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>PNL - National Liberal Party  (Partidul National Liberal, PNL)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>PNL - National Liberal Party  (Partidul National Liberal, PNL)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>PNL - National Liberal Party  (Partidul National Liberal, PNL)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+PNL - National Liberal Party  (Partidul National Liberal, PNL)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)</t>
+  </si>
+  <si>
+    <t>Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>PNL - National Liberal Party  (Partidul National Liberal, PNL)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>ALDE - Alliance of Liberals and Democrats Party (Alianța Liberalilor și Democraților, ALDE)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PMP - People's Movement Party (Partidul Mișcarea Populară, PMP)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>AUR - Alliance for the Unity of Romanians (Alianța pentru Unitatea Românilor, AUR)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)</t>
+  </si>
+  <si>
+    <t>AUR - Alliance for the Unity of Romanians (Alianța pentru Unitatea Românilor, AUR)+PNL - National Liberal Party  (Partidul National Liberal, PNL)</t>
+  </si>
+  <si>
+    <t>AUR - Alliance for the Unity of Romanians (Alianța pentru Unitatea Românilor, AUR)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)</t>
+  </si>
+  <si>
+    <t>AUR - Alliance for the Unity of Romanians (Alianța pentru Unitatea Românilor, AUR)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>AUR - Alliance for the Unity of Romanians (Alianța pentru Unitatea Românilor, AUR)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>AUR - Alliance for the Unity of Romanians (Alianța pentru Unitatea Românilor, AUR)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PNL - National Liberal Party  (Partidul National Liberal, PNL)</t>
+  </si>
+  <si>
+    <t>AUR - Alliance for the Unity of Romanians (Alianța pentru Unitatea Românilor, AUR)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)</t>
+  </si>
+  <si>
+    <t>AUR - Alliance for the Unity of Romanians (Alianța pentru Unitatea Românilor, AUR)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>AUR - Alliance for the Unity of Romanians (Alianța pentru Unitatea Românilor, AUR)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>AUR - Alliance for the Unity of Romanians (Alianța pentru Unitatea Românilor, AUR)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)</t>
+  </si>
+  <si>
+    <t>AUR - Alliance for the Unity of Romanians (Alianța pentru Unitatea Românilor, AUR)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>AUR - Alliance for the Unity of Romanians (Alianța pentru Unitatea Românilor, AUR)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>AUR - Alliance for the Unity of Romanians (Alianța pentru Unitatea Românilor, AUR)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>AUR - Alliance for the Unity of Romanians (Alianța pentru Unitatea Românilor, AUR)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>AUR - Alliance for the Unity of Romanians (Alianța pentru Unitatea Românilor, AUR)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>AUR - Alliance for the Unity of Romanians (Alianța pentru Unitatea Românilor, AUR)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)</t>
+  </si>
+  <si>
+    <t>AUR - Alliance for the Unity of Romanians (Alianța pentru Unitatea Românilor, AUR)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>AUR - Alliance for the Unity of Romanians (Alianța pentru Unitatea Românilor, AUR)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>AUR - Alliance for the Unity of Romanians (Alianța pentru Unitatea Românilor, AUR)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>AUR - Alliance for the Unity of Romanians (Alianța pentru Unitatea Românilor, AUR)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>AUR - Alliance for the Unity of Romanians (Alianța pentru Unitatea Românilor, AUR)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>AUR - Alliance for the Unity of Romanians (Alianța pentru Unitatea Românilor, AUR)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>AUR - Alliance for the Unity of Romanians (Alianța pentru Unitatea Românilor, AUR)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>AUR - Alliance for the Unity of Romanians (Alianța pentru Unitatea Românilor, AUR)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>AUR - Alliance for the Unity of Romanians (Alianța pentru Unitatea Românilor, AUR)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>AUR - Alliance for the Unity of Romanians (Alianța pentru Unitatea Românilor, AUR)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)</t>
+  </si>
+  <si>
+    <t>AUR - Alliance for the Unity of Romanians (Alianța pentru Unitatea Românilor, AUR)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>AUR - Alliance for the Unity of Romanians (Alianța pentru Unitatea Românilor, AUR)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>AUR - Alliance for the Unity of Romanians (Alianța pentru Unitatea Românilor, AUR)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>AUR - Alliance for the Unity of Romanians (Alianța pentru Unitatea Românilor, AUR)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
+  </si>
+  <si>
+    <t>AUR - Alliance for the Unity of Romanians (Alianța pentru Unitatea Românilor, AUR)+Other-Ethnic - Ethnic minorities other than Hungarians (, Other-Ethnic)+PNL - National Liberal Party  (Partidul National Liberal, PNL)+PSD - Social Democratic Party  (Partidul Social Democrat, PSD)+UDMR/RMDSz - Democratic Union of Magyars in Romania  (Uniunea Democrata a Maghiarilor din Romania, UDMR/RMDSz)+USR - Save Romania Union (Uniunea Salvați România, USR)</t>
   </si>
 </sst>
 </file>
